--- a/test data/rebilltroubleshoottest.xlsx
+++ b/test data/rebilltroubleshoottest.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5194105\Documents\Eclipse Projects\Master GUI\test data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView windowHeight="5970" windowWidth="14160" xWindow="240" yWindow="60"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$R$235</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$S$235</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10351" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91867" uniqueCount="577">
   <si>
     <t>a</t>
   </si>
@@ -1420,14 +1425,344 @@
   </si>
   <si>
     <t>LPAR DATE = 2019-06-15 05:13:32.129</t>
+  </si>
+  <si>
+    <t>TimePeriod</t>
+  </si>
+  <si>
+    <t>Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>Is Eligable</t>
+  </si>
+  <si>
+    <t>Unknown SQL Error</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 16:09:49.904</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 16:02:07.966</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 16:00:58.578</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 20:03:56.494</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 17:02:21.184</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 17:02:26.422</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 20:07:12.925</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 18:02:10.859</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 20:03:47.597</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 12:52:33.709</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 13:11:57.195</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:08:12.767</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 20:05:17.021</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 18:01:54.516</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 20:07:14.044</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 16:10:55.572</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 16:13:27.559</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-18 04:00:00.001</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-24 15:11:00.658</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:17:09.17</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-24 04:36:27.053</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:18:34.466</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 04:00:00.001</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:16:20.202</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 12:58:41.666</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:27:26.99</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-05 04:00:00.001</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-07-01 11:00:00.001</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-09 08:00:00.001</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 06:36:17.402</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 06:40:08.897</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-24 15:40:54.316</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:28:41.922</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:27:10.561</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 16:09:49.904  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 16:02:07.966  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 16:00:58.578  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 20:03:56.494  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 17:02:21.184  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 17:02:26.422  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 20:07:12.925  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 18:02:10.859  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 20:03:47.597  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 12:52:33.709  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 13:11:57.195  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:08:12.767  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 20:05:17.021  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 18:01:54.516  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 20:07:14.044  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 16:10:55.572  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 16:13:27.559  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-18 04:00:00.001  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-24 15:11:00.658  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:17:09.17  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-24 04:36:27.053  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:18:34.466  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 04:00:00.001  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:16:20.202  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-21 12:58:41.666  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:27:26.99  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-05 04:00:00.001  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>Unknown SQL Error  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-07-01 11:00:00.001  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-09 08:00:00.001  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 06:36:17.402  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 06:40:08.897  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-24 15:40:54.316  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:28:41.922  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t>LPAR DATE = 2019-06-22 15:27:10.561  Not in RM or Y Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 16:09:49.904  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 16:02:07.966  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 16:00:58.578  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 20:03:56.494  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 17:02:21.184  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 17:02:26.422  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 20:07:12.925  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 18:02:10.859  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 20:03:47.597  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 12:52:33.709  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 13:11:57.195  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 15:08:12.767  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 20:05:17.021  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 18:01:54.516  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 20:07:14.044  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 16:10:55.572  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 16:13:27.559  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-18 04:00:00.001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-24 15:11:00.658  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 15:17:09.17  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-24 04:36:27.053  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 15:18:34.466  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 04:00:00.001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 15:16:20.202  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-21 12:58:41.666  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 15:27:26.99  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-05 04:00:00.001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown SQL Error  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-07-01 11:00:00.001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-09 08:00:00.001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 06:36:17.402  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 06:40:08.897  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-24 15:40:54.316  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 15:28:41.922  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR DATE = 2019-06-22 15:27:10.561  </t>
+  </si>
+  <si>
+    <t>No Trk Was Shipped</t>
+  </si>
+  <si>
+    <t>Not Found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1465,6 +1800,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1511,7 +1854,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1543,9 +1886,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1577,6 +1921,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1752,25 +2097,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y288"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" style="1" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="7" max="16" style="1" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="39.28515625" collapsed="true"/>
-    <col min="19" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="4" style="1" width="9.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="16.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="7" max="16" style="1" width="9.1796875" collapsed="true"/>
+    <col min="17" max="17" style="1" width="9.1796875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="33.54296875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="39.26953125" collapsed="true"/>
+    <col min="20" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>443</v>
       </c>
@@ -1820,13 +2166,16 @@
         <v>458</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>461</v>
       </c>
@@ -1879,10 +2228,13 @@
         <v>461</v>
       </c>
       <c r="R2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>575</v>
+      </c>
+      <c r="S2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1932,13 +2284,16 @@
         <v>461</v>
       </c>
       <c r="Q3" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>469</v>
+      </c>
+      <c r="S3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1988,13 +2343,16 @@
         <v>461</v>
       </c>
       <c r="Q4" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>469</v>
+      </c>
+      <c r="S4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2044,13 +2402,16 @@
         <v>461</v>
       </c>
       <c r="Q5" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>469</v>
+      </c>
+      <c r="S5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2100,13 +2461,16 @@
         <v>461</v>
       </c>
       <c r="Q6" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>469</v>
+      </c>
+      <c r="S6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2156,13 +2520,16 @@
         <v>461</v>
       </c>
       <c r="Q7" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>469</v>
+      </c>
+      <c r="S7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2212,13 +2579,16 @@
         <v>461</v>
       </c>
       <c r="Q8" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>469</v>
+      </c>
+      <c r="S8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2268,13 +2638,16 @@
         <v>461</v>
       </c>
       <c r="Q9" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>461</v>
+      </c>
+      <c r="S9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2324,13 +2697,16 @@
         <v>461</v>
       </c>
       <c r="Q10" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>461</v>
+      </c>
+      <c r="S10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2380,13 +2756,16 @@
         <v>461</v>
       </c>
       <c r="Q11" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R11" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>461</v>
+      </c>
+      <c r="S11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2436,13 +2815,16 @@
         <v>461</v>
       </c>
       <c r="Q12" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>461</v>
+      </c>
+      <c r="S12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2492,16 +2874,19 @@
         <v>461</v>
       </c>
       <c r="Q13" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R13" t="s">
-        <v>463</v>
-      </c>
-      <c r="Y13" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S13" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2551,13 +2936,16 @@
         <v>461</v>
       </c>
       <c r="Q14" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>469</v>
+      </c>
+      <c r="S14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>461</v>
       </c>
@@ -2610,10 +2998,13 @@
         <v>461</v>
       </c>
       <c r="R15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>575</v>
+      </c>
+      <c r="S15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>461</v>
       </c>
@@ -2666,10 +3057,13 @@
         <v>461</v>
       </c>
       <c r="R16" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>461</v>
       </c>
@@ -2722,10 +3116,13 @@
         <v>461</v>
       </c>
       <c r="R17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>461</v>
       </c>
@@ -2778,10 +3175,13 @@
         <v>461</v>
       </c>
       <c r="R18" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>461</v>
       </c>
@@ -2834,10 +3234,13 @@
         <v>461</v>
       </c>
       <c r="R19" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>461</v>
       </c>
@@ -2890,10 +3293,13 @@
         <v>461</v>
       </c>
       <c r="R20" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>461</v>
       </c>
@@ -2946,10 +3352,13 @@
         <v>461</v>
       </c>
       <c r="R21" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2999,13 +3408,16 @@
         <v>48</v>
       </c>
       <c r="Q22" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R22" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3055,13 +3467,16 @@
         <v>48</v>
       </c>
       <c r="Q23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s">
         <v>465</v>
       </c>
-      <c r="R23" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -3111,13 +3526,16 @@
         <v>461</v>
       </c>
       <c r="Q24" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -3167,13 +3585,16 @@
         <v>461</v>
       </c>
       <c r="Q25" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>461</v>
       </c>
@@ -3226,10 +3647,13 @@
         <v>461</v>
       </c>
       <c r="R26" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>461</v>
       </c>
@@ -3282,10 +3706,13 @@
         <v>461</v>
       </c>
       <c r="R27" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>461</v>
       </c>
@@ -3338,10 +3765,13 @@
         <v>461</v>
       </c>
       <c r="R28" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>461</v>
       </c>
@@ -3394,10 +3824,13 @@
         <v>461</v>
       </c>
       <c r="R29" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S29" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>461</v>
       </c>
@@ -3450,10 +3883,13 @@
         <v>461</v>
       </c>
       <c r="R30" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3503,13 +3939,16 @@
         <v>461</v>
       </c>
       <c r="Q31" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R31" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S31" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3559,13 +3998,16 @@
         <v>461</v>
       </c>
       <c r="Q32" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R32" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S32" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3615,13 +4057,16 @@
         <v>461</v>
       </c>
       <c r="Q33" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R33" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S33" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3671,13 +4116,16 @@
         <v>461</v>
       </c>
       <c r="Q34" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R34" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S34" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -3727,13 +4175,16 @@
         <v>461</v>
       </c>
       <c r="Q35" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R35" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S35" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -3783,13 +4234,16 @@
         <v>461</v>
       </c>
       <c r="Q36" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R36" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S36" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>461</v>
       </c>
@@ -3842,10 +4296,13 @@
         <v>461</v>
       </c>
       <c r="R37" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -3895,13 +4352,16 @@
         <v>69</v>
       </c>
       <c r="Q38" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R38" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S38" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3951,13 +4411,16 @@
         <v>461</v>
       </c>
       <c r="Q39" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R39" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S39" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -4007,13 +4470,16 @@
         <v>461</v>
       </c>
       <c r="Q40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s">
         <v>465</v>
       </c>
-      <c r="R40" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -4063,13 +4529,16 @@
         <v>76</v>
       </c>
       <c r="Q41" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" t="s">
         <v>465</v>
       </c>
-      <c r="R41" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -4119,13 +4588,16 @@
         <v>76</v>
       </c>
       <c r="Q42" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" t="s">
         <v>465</v>
       </c>
-      <c r="R42" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -4175,13 +4647,16 @@
         <v>76</v>
       </c>
       <c r="Q43" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
       <c r="R43" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -4231,13 +4706,16 @@
         <v>76</v>
       </c>
       <c r="Q44" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="R44" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S44" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>461</v>
       </c>
@@ -4290,10 +4768,13 @@
         <v>461</v>
       </c>
       <c r="R45" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -4343,13 +4824,16 @@
         <v>88</v>
       </c>
       <c r="Q46" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s">
         <v>465</v>
       </c>
-      <c r="R46" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -4399,13 +4883,16 @@
         <v>88</v>
       </c>
       <c r="Q47" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R47" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S47" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -4455,13 +4942,16 @@
         <v>88</v>
       </c>
       <c r="Q48" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R48" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S48" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -4511,13 +5001,16 @@
         <v>88</v>
       </c>
       <c r="Q49" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s">
         <v>465</v>
       </c>
-      <c r="R49" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>461</v>
       </c>
@@ -4570,10 +5063,13 @@
         <v>461</v>
       </c>
       <c r="R50" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -4623,13 +5119,16 @@
         <v>461</v>
       </c>
       <c r="Q51" t="s">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s">
         <v>465</v>
       </c>
-      <c r="R51" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -4679,13 +5178,16 @@
         <v>461</v>
       </c>
       <c r="Q52" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R52" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>542</v>
+      </c>
+      <c r="S52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -4735,13 +5237,16 @@
         <v>461</v>
       </c>
       <c r="Q53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s">
         <v>465</v>
       </c>
-      <c r="R53" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4791,13 +5296,16 @@
         <v>461</v>
       </c>
       <c r="Q54" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R54" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>540</v>
+      </c>
+      <c r="S54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4847,13 +5355,16 @@
         <v>461</v>
       </c>
       <c r="Q55" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R55" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>541</v>
+      </c>
+      <c r="S55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4903,13 +5414,16 @@
         <v>461</v>
       </c>
       <c r="Q56" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R56" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>545</v>
+      </c>
+      <c r="S56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4959,13 +5473,16 @@
         <v>461</v>
       </c>
       <c r="Q57" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s">
         <v>465</v>
       </c>
-      <c r="R57" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -5015,13 +5532,16 @@
         <v>461</v>
       </c>
       <c r="Q58" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" t="s">
         <v>465</v>
       </c>
-      <c r="R58" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -5071,13 +5591,16 @@
         <v>461</v>
       </c>
       <c r="Q59" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R59" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>544</v>
+      </c>
+      <c r="S59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -5127,13 +5650,16 @@
         <v>461</v>
       </c>
       <c r="Q60" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R60" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>543</v>
+      </c>
+      <c r="S60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>461</v>
       </c>
@@ -5186,10 +5712,13 @@
         <v>461</v>
       </c>
       <c r="R61" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S61" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>461</v>
       </c>
@@ -5242,10 +5771,13 @@
         <v>461</v>
       </c>
       <c r="R62" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>461</v>
       </c>
@@ -5298,10 +5830,13 @@
         <v>461</v>
       </c>
       <c r="R63" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S63" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>461</v>
       </c>
@@ -5354,10 +5889,13 @@
         <v>461</v>
       </c>
       <c r="R64" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>461</v>
       </c>
@@ -5410,10 +5948,13 @@
         <v>461</v>
       </c>
       <c r="R65" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S65" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>461</v>
       </c>
@@ -5466,10 +6007,13 @@
         <v>461</v>
       </c>
       <c r="R66" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S66" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -5519,13 +6063,16 @@
         <v>461</v>
       </c>
       <c r="Q67" t="s">
+        <v>7</v>
+      </c>
+      <c r="R67" t="s">
         <v>465</v>
       </c>
-      <c r="R67" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -5575,13 +6122,16 @@
         <v>461</v>
       </c>
       <c r="Q68" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="R68" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S68" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>461</v>
       </c>
@@ -5634,10 +6184,13 @@
         <v>461</v>
       </c>
       <c r="R69" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S69" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -5687,13 +6240,16 @@
         <v>120</v>
       </c>
       <c r="Q70" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R70" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>547</v>
+      </c>
+      <c r="S70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5743,13 +6299,16 @@
         <v>120</v>
       </c>
       <c r="Q71" t="s">
+        <v>4</v>
+      </c>
+      <c r="R71" t="s">
         <v>465</v>
       </c>
-      <c r="R71" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -5799,13 +6358,16 @@
         <v>120</v>
       </c>
       <c r="Q72" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R72" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>548</v>
+      </c>
+      <c r="S72" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -5855,13 +6417,16 @@
         <v>120</v>
       </c>
       <c r="Q73" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R73" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>546</v>
+      </c>
+      <c r="S73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -5911,13 +6476,16 @@
         <v>120</v>
       </c>
       <c r="Q74" t="s">
+        <v>4</v>
+      </c>
+      <c r="R74" t="s">
         <v>465</v>
       </c>
-      <c r="R74" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5967,13 +6535,16 @@
         <v>461</v>
       </c>
       <c r="Q75" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R75" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>551</v>
+      </c>
+      <c r="S75" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -6023,13 +6594,16 @@
         <v>461</v>
       </c>
       <c r="Q76" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" t="s">
         <v>465</v>
       </c>
-      <c r="R76" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -6079,13 +6653,16 @@
         <v>461</v>
       </c>
       <c r="Q77" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R77" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>549</v>
+      </c>
+      <c r="S77" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -6135,13 +6712,16 @@
         <v>461</v>
       </c>
       <c r="Q78" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R78" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>550</v>
+      </c>
+      <c r="S78" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -6191,13 +6771,16 @@
         <v>461</v>
       </c>
       <c r="Q79" t="s">
+        <v>4</v>
+      </c>
+      <c r="R79" t="s">
         <v>465</v>
       </c>
-      <c r="R79" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>461</v>
       </c>
@@ -6250,10 +6833,13 @@
         <v>461</v>
       </c>
       <c r="R80" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S80" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -6303,13 +6889,16 @@
         <v>135</v>
       </c>
       <c r="Q81" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" t="s">
         <v>465</v>
       </c>
-      <c r="R81" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -6359,13 +6948,16 @@
         <v>135</v>
       </c>
       <c r="Q82" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R82" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -6415,13 +7007,16 @@
         <v>135</v>
       </c>
       <c r="Q83" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R83" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S83" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -6471,13 +7066,16 @@
         <v>135</v>
       </c>
       <c r="Q84" t="s">
+        <v>4</v>
+      </c>
+      <c r="R84" t="s">
         <v>465</v>
       </c>
-      <c r="R84" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>461</v>
       </c>
@@ -6530,10 +7128,13 @@
         <v>461</v>
       </c>
       <c r="R85" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S85" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -6583,13 +7184,16 @@
         <v>120</v>
       </c>
       <c r="Q86" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R86" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>554</v>
+      </c>
+      <c r="S86" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -6639,13 +7243,16 @@
         <v>120</v>
       </c>
       <c r="Q87" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R87" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+        <v>552</v>
+      </c>
+      <c r="S87" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -6695,13 +7302,16 @@
         <v>120</v>
       </c>
       <c r="Q88" t="s">
+        <v>4</v>
+      </c>
+      <c r="R88" t="s">
         <v>465</v>
       </c>
-      <c r="R88" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -6751,13 +7361,16 @@
         <v>120</v>
       </c>
       <c r="Q89" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R89" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+        <v>553</v>
+      </c>
+      <c r="S89" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -6807,13 +7420,16 @@
         <v>120</v>
       </c>
       <c r="Q90" t="s">
+        <v>4</v>
+      </c>
+      <c r="R90" t="s">
         <v>465</v>
       </c>
-      <c r="R90" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -6863,13 +7479,16 @@
         <v>461</v>
       </c>
       <c r="Q91" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R91" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+        <v>555</v>
+      </c>
+      <c r="S91" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -6919,13 +7538,16 @@
         <v>461</v>
       </c>
       <c r="Q92" t="s">
+        <v>4</v>
+      </c>
+      <c r="R92" t="s">
         <v>465</v>
       </c>
-      <c r="R92" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -6975,13 +7597,16 @@
         <v>461</v>
       </c>
       <c r="Q93" t="s">
+        <v>4</v>
+      </c>
+      <c r="R93" t="s">
         <v>465</v>
       </c>
-      <c r="R93" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -7031,13 +7656,16 @@
         <v>461</v>
       </c>
       <c r="Q94" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R94" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+        <v>556</v>
+      </c>
+      <c r="S94" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>461</v>
       </c>
@@ -7090,10 +7718,13 @@
         <v>461</v>
       </c>
       <c r="R95" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S95" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>461</v>
       </c>
@@ -7146,10 +7777,13 @@
         <v>461</v>
       </c>
       <c r="R96" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S96" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -7199,13 +7833,16 @@
         <v>88</v>
       </c>
       <c r="Q97" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R97" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S97" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -7255,13 +7892,16 @@
         <v>88</v>
       </c>
       <c r="Q98" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R98" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S98" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -7311,13 +7951,16 @@
         <v>88</v>
       </c>
       <c r="Q99" t="s">
+        <v>4</v>
+      </c>
+      <c r="R99" t="s">
         <v>465</v>
       </c>
-      <c r="R99" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -7367,13 +8010,16 @@
         <v>88</v>
       </c>
       <c r="Q100" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" t="s">
         <v>465</v>
       </c>
-      <c r="R100" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>461</v>
       </c>
@@ -7426,10 +8072,13 @@
         <v>461</v>
       </c>
       <c r="R101" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S101" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -7479,13 +8128,16 @@
         <v>159</v>
       </c>
       <c r="Q102" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R102" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S102" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -7535,13 +8187,16 @@
         <v>159</v>
       </c>
       <c r="Q103" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R103" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S103" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -7591,13 +8246,16 @@
         <v>461</v>
       </c>
       <c r="Q104" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R104" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
+        <v>557</v>
+      </c>
+      <c r="S104" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>461</v>
       </c>
@@ -7650,10 +8308,13 @@
         <v>461</v>
       </c>
       <c r="R105" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S105" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>461</v>
       </c>
@@ -7706,10 +8367,13 @@
         <v>461</v>
       </c>
       <c r="R106" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S106" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>461</v>
       </c>
@@ -7762,10 +8426,13 @@
         <v>461</v>
       </c>
       <c r="R107" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S107" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -7815,13 +8482,16 @@
         <v>170</v>
       </c>
       <c r="Q108" t="s">
+        <v>4</v>
+      </c>
+      <c r="R108" t="s">
         <v>465</v>
       </c>
-      <c r="R108" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -7871,13 +8541,16 @@
         <v>170</v>
       </c>
       <c r="Q109" t="s">
+        <v>4</v>
+      </c>
+      <c r="R109" t="s">
         <v>465</v>
       </c>
-      <c r="R109" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -7927,13 +8600,16 @@
         <v>170</v>
       </c>
       <c r="Q110" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R110" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S110" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -7983,13 +8659,16 @@
         <v>170</v>
       </c>
       <c r="Q111" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R111" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S111" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -8039,13 +8718,16 @@
         <v>170</v>
       </c>
       <c r="Q112" t="s">
+        <v>4</v>
+      </c>
+      <c r="R112" t="s">
         <v>465</v>
       </c>
-      <c r="R112" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -8095,13 +8777,16 @@
         <v>170</v>
       </c>
       <c r="Q113" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R113" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S113" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -8151,13 +8836,16 @@
         <v>180</v>
       </c>
       <c r="Q114" t="s">
+        <v>4</v>
+      </c>
+      <c r="R114" t="s">
         <v>465</v>
       </c>
-      <c r="R114" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -8207,13 +8895,16 @@
         <v>180</v>
       </c>
       <c r="Q115" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R115" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S115" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -8263,13 +8954,16 @@
         <v>180</v>
       </c>
       <c r="Q116" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R116" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -8319,13 +9013,16 @@
         <v>180</v>
       </c>
       <c r="Q117" t="s">
+        <v>4</v>
+      </c>
+      <c r="R117" t="s">
         <v>465</v>
       </c>
-      <c r="R117" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>461</v>
       </c>
@@ -8378,10 +9075,13 @@
         <v>461</v>
       </c>
       <c r="R118" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S118" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -8431,13 +9131,16 @@
         <v>461</v>
       </c>
       <c r="Q119" t="s">
+        <v>7</v>
+      </c>
+      <c r="R119" t="s">
         <v>465</v>
       </c>
-      <c r="R119" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -8487,13 +9190,16 @@
         <v>461</v>
       </c>
       <c r="Q120" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
       <c r="R120" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S120" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -8543,13 +9249,16 @@
         <v>461</v>
       </c>
       <c r="Q121" t="s">
+        <v>7</v>
+      </c>
+      <c r="R121" t="s">
         <v>465</v>
       </c>
-      <c r="R121" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -8599,13 +9308,16 @@
         <v>461</v>
       </c>
       <c r="Q122" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="R122" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18">
+        <v>558</v>
+      </c>
+      <c r="S122" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>461</v>
       </c>
@@ -8658,10 +9370,13 @@
         <v>461</v>
       </c>
       <c r="R123" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S123" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -8711,13 +9426,16 @@
         <v>461</v>
       </c>
       <c r="Q124" t="s">
+        <v>4</v>
+      </c>
+      <c r="R124" t="s">
         <v>465</v>
       </c>
-      <c r="R124" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -8767,13 +9485,16 @@
         <v>461</v>
       </c>
       <c r="Q125" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R125" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18">
+        <v>559</v>
+      </c>
+      <c r="S125" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -8823,13 +9544,16 @@
         <v>461</v>
       </c>
       <c r="Q126" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R126" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18">
+        <v>559</v>
+      </c>
+      <c r="S126" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -8879,13 +9603,16 @@
         <v>461</v>
       </c>
       <c r="Q127" t="s">
+        <v>4</v>
+      </c>
+      <c r="R127" t="s">
         <v>465</v>
       </c>
-      <c r="R127" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>461</v>
       </c>
@@ -8938,10 +9665,13 @@
         <v>461</v>
       </c>
       <c r="R128" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S128" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -8991,13 +9721,16 @@
         <v>461</v>
       </c>
       <c r="Q129" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
       <c r="R129" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S129" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -9047,13 +9780,16 @@
         <v>461</v>
       </c>
       <c r="Q130" t="s">
+        <v>7</v>
+      </c>
+      <c r="R130" t="s">
         <v>465</v>
       </c>
-      <c r="R130" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -9103,13 +9839,16 @@
         <v>203</v>
       </c>
       <c r="Q131" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R131" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S131" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -9159,13 +9898,16 @@
         <v>203</v>
       </c>
       <c r="Q132" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R132" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S132" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -9215,13 +9957,16 @@
         <v>461</v>
       </c>
       <c r="Q133" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R133" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18">
+        <v>560</v>
+      </c>
+      <c r="S133" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -9271,13 +10016,16 @@
         <v>461</v>
       </c>
       <c r="Q134" t="s">
+        <v>4</v>
+      </c>
+      <c r="R134" t="s">
         <v>465</v>
       </c>
-      <c r="R134" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -9327,13 +10075,16 @@
         <v>461</v>
       </c>
       <c r="Q135" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R135" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S135" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -9383,13 +10134,16 @@
         <v>461</v>
       </c>
       <c r="Q136" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R136" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18">
+        <v>561</v>
+      </c>
+      <c r="S136" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -9439,13 +10193,16 @@
         <v>461</v>
       </c>
       <c r="Q137" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R137" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18">
+        <v>561</v>
+      </c>
+      <c r="S137" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -9495,13 +10252,16 @@
         <v>461</v>
       </c>
       <c r="Q138" t="s">
+        <v>4</v>
+      </c>
+      <c r="R138" t="s">
         <v>465</v>
       </c>
-      <c r="R138" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -9551,13 +10311,16 @@
         <v>461</v>
       </c>
       <c r="Q139" t="s">
+        <v>4</v>
+      </c>
+      <c r="R139" t="s">
         <v>465</v>
       </c>
-      <c r="R139" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -9607,13 +10370,16 @@
         <v>461</v>
       </c>
       <c r="Q140" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R140" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18">
+        <v>562</v>
+      </c>
+      <c r="S140" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>461</v>
       </c>
@@ -9666,10 +10432,13 @@
         <v>461</v>
       </c>
       <c r="R141" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S141" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>461</v>
       </c>
@@ -9722,10 +10491,13 @@
         <v>461</v>
       </c>
       <c r="R142" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S142" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>461</v>
       </c>
@@ -9778,10 +10550,13 @@
         <v>461</v>
       </c>
       <c r="R143" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S143" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>461</v>
       </c>
@@ -9834,10 +10609,13 @@
         <v>461</v>
       </c>
       <c r="R144" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S144" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>461</v>
       </c>
@@ -9890,10 +10668,13 @@
         <v>461</v>
       </c>
       <c r="R145" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S145" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>461</v>
       </c>
@@ -9946,10 +10727,13 @@
         <v>461</v>
       </c>
       <c r="R146" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S146" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>461</v>
       </c>
@@ -10002,10 +10786,13 @@
         <v>461</v>
       </c>
       <c r="R147" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S147" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -10058,10 +10845,13 @@
         <v>461</v>
       </c>
       <c r="R148" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S148" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>461</v>
       </c>
@@ -10114,10 +10904,13 @@
         <v>461</v>
       </c>
       <c r="R149" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S149" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -10167,13 +10960,16 @@
         <v>461</v>
       </c>
       <c r="Q150" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R150" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S150" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -10223,13 +11019,16 @@
         <v>461</v>
       </c>
       <c r="Q151" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R151" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S151" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -10279,13 +11078,16 @@
         <v>461</v>
       </c>
       <c r="Q152" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R152" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S152" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -10335,13 +11137,16 @@
         <v>461</v>
       </c>
       <c r="Q153" t="s">
+        <v>4</v>
+      </c>
+      <c r="R153" t="s">
         <v>465</v>
       </c>
-      <c r="R153" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -10391,13 +11196,16 @@
         <v>461</v>
       </c>
       <c r="Q154" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R154" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S154" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>461</v>
       </c>
@@ -10450,10 +11258,13 @@
         <v>461</v>
       </c>
       <c r="R155" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S155" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -10503,13 +11314,16 @@
         <v>461</v>
       </c>
       <c r="Q156" t="s">
+        <v>576</v>
+      </c>
+      <c r="R156" t="s">
         <v>465</v>
       </c>
-      <c r="R156" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -10559,13 +11373,16 @@
         <v>461</v>
       </c>
       <c r="Q157" t="s">
-        <v>466</v>
+        <v>576</v>
       </c>
       <c r="R157" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18">
+        <v>563</v>
+      </c>
+      <c r="S157" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -10615,13 +11432,16 @@
         <v>243</v>
       </c>
       <c r="Q158" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R158" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18">
+        <v>564</v>
+      </c>
+      <c r="S158" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -10671,13 +11491,16 @@
         <v>243</v>
       </c>
       <c r="Q159" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R159" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18">
+        <v>565</v>
+      </c>
+      <c r="S159" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -10727,13 +11550,16 @@
         <v>243</v>
       </c>
       <c r="Q160" t="s">
+        <v>576</v>
+      </c>
+      <c r="R160" t="s">
         <v>465</v>
       </c>
-      <c r="R160" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -10783,13 +11609,16 @@
         <v>243</v>
       </c>
       <c r="Q161" t="s">
+        <v>576</v>
+      </c>
+      <c r="R161" t="s">
         <v>465</v>
       </c>
-      <c r="R161" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -10842,10 +11671,13 @@
         <v>461</v>
       </c>
       <c r="R162" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S162" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -10895,13 +11727,16 @@
         <v>252</v>
       </c>
       <c r="Q163" t="s">
-        <v>466</v>
+        <v>576</v>
       </c>
       <c r="R163" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18">
+        <v>566</v>
+      </c>
+      <c r="S163" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -10951,13 +11786,16 @@
         <v>461</v>
       </c>
       <c r="Q164" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R164" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -11007,13 +11845,16 @@
         <v>461</v>
       </c>
       <c r="Q165" t="s">
+        <v>576</v>
+      </c>
+      <c r="R165" t="s">
         <v>465</v>
       </c>
-      <c r="R165" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="S165" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -11063,13 +11904,16 @@
         <v>461</v>
       </c>
       <c r="Q166" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R166" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S166" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -11119,13 +11963,16 @@
         <v>461</v>
       </c>
       <c r="Q167" t="s">
+        <v>576</v>
+      </c>
+      <c r="R167" t="s">
         <v>465</v>
       </c>
-      <c r="R167" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -11175,13 +12022,16 @@
         <v>461</v>
       </c>
       <c r="Q168" t="s">
+        <v>576</v>
+      </c>
+      <c r="R168" t="s">
         <v>465</v>
       </c>
-      <c r="R168" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -11231,13 +12081,16 @@
         <v>461</v>
       </c>
       <c r="Q169" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R169" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S169" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -11287,13 +12140,16 @@
         <v>461</v>
       </c>
       <c r="Q170" t="s">
+        <v>576</v>
+      </c>
+      <c r="R170" t="s">
         <v>465</v>
       </c>
-      <c r="R170" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -11343,13 +12199,16 @@
         <v>461</v>
       </c>
       <c r="Q171" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R171" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S171" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -11399,13 +12258,16 @@
         <v>461</v>
       </c>
       <c r="Q172" t="s">
-        <v>466</v>
+        <v>576</v>
       </c>
       <c r="R172" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18">
+        <v>567</v>
+      </c>
+      <c r="S172" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -11455,13 +12317,16 @@
         <v>461</v>
       </c>
       <c r="Q173" t="s">
-        <v>466</v>
+        <v>576</v>
       </c>
       <c r="R173" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18">
+        <v>568</v>
+      </c>
+      <c r="S173" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -11511,13 +12376,16 @@
         <v>268</v>
       </c>
       <c r="Q174" t="s">
+        <v>576</v>
+      </c>
+      <c r="R174" t="s">
         <v>465</v>
       </c>
-      <c r="R174" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -11567,13 +12435,16 @@
         <v>268</v>
       </c>
       <c r="Q175" t="s">
+        <v>576</v>
+      </c>
+      <c r="R175" t="s">
         <v>465</v>
       </c>
-      <c r="R175" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -11623,13 +12494,16 @@
         <v>268</v>
       </c>
       <c r="Q176" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R176" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S176" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -11679,13 +12553,16 @@
         <v>268</v>
       </c>
       <c r="Q177" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R177" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S177" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -11735,13 +12612,16 @@
         <v>274</v>
       </c>
       <c r="Q178" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R178" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S178" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -11791,13 +12671,16 @@
         <v>274</v>
       </c>
       <c r="Q179" t="s">
+        <v>576</v>
+      </c>
+      <c r="R179" t="s">
         <v>465</v>
       </c>
-      <c r="R179" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -11847,13 +12730,16 @@
         <v>274</v>
       </c>
       <c r="Q180" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R180" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S180" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -11903,13 +12789,16 @@
         <v>274</v>
       </c>
       <c r="Q181" t="s">
+        <v>576</v>
+      </c>
+      <c r="R181" t="s">
         <v>465</v>
       </c>
-      <c r="R181" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -11959,13 +12848,16 @@
         <v>280</v>
       </c>
       <c r="Q182" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R182" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S182" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -12015,13 +12907,16 @@
         <v>280</v>
       </c>
       <c r="Q183" t="s">
+        <v>576</v>
+      </c>
+      <c r="R183" t="s">
         <v>465</v>
       </c>
-      <c r="R183" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -12071,13 +12966,16 @@
         <v>280</v>
       </c>
       <c r="Q184" t="s">
+        <v>576</v>
+      </c>
+      <c r="R184" t="s">
         <v>465</v>
       </c>
-      <c r="R184" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -12127,13 +13025,16 @@
         <v>280</v>
       </c>
       <c r="Q185" t="s">
+        <v>576</v>
+      </c>
+      <c r="R185" t="s">
         <v>465</v>
       </c>
-      <c r="R185" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -12183,13 +13084,16 @@
         <v>280</v>
       </c>
       <c r="Q186" t="s">
+        <v>576</v>
+      </c>
+      <c r="R186" t="s">
         <v>465</v>
       </c>
-      <c r="R186" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -12239,13 +13143,16 @@
         <v>280</v>
       </c>
       <c r="Q187" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R187" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S187" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -12295,13 +13202,16 @@
         <v>280</v>
       </c>
       <c r="Q188" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R188" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S188" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -12351,13 +13261,16 @@
         <v>280</v>
       </c>
       <c r="Q189" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R189" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S189" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -12407,13 +13320,16 @@
         <v>227</v>
       </c>
       <c r="Q190" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R190" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S190" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -12463,13 +13379,16 @@
         <v>227</v>
       </c>
       <c r="Q191" t="s">
+        <v>576</v>
+      </c>
+      <c r="R191" t="s">
         <v>465</v>
       </c>
-      <c r="R191" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -12519,13 +13438,16 @@
         <v>227</v>
       </c>
       <c r="Q192" t="s">
+        <v>576</v>
+      </c>
+      <c r="R192" t="s">
         <v>465</v>
       </c>
-      <c r="R192" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -12575,13 +13497,16 @@
         <v>227</v>
       </c>
       <c r="Q193" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R193" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S193" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -12631,13 +13556,16 @@
         <v>227</v>
       </c>
       <c r="Q194" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R194" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S194" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -12687,13 +13615,16 @@
         <v>227</v>
       </c>
       <c r="Q195" t="s">
-        <v>466</v>
+        <v>576</v>
       </c>
       <c r="R195" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18">
+        <v>569</v>
+      </c>
+      <c r="S195" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -12743,13 +13674,16 @@
         <v>227</v>
       </c>
       <c r="Q196" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R196" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S196" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -12799,13 +13733,16 @@
         <v>227</v>
       </c>
       <c r="Q197" t="s">
-        <v>466</v>
+        <v>576</v>
       </c>
       <c r="R197" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18">
+        <v>567</v>
+      </c>
+      <c r="S197" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -12855,13 +13792,16 @@
         <v>227</v>
       </c>
       <c r="Q198" t="s">
+        <v>576</v>
+      </c>
+      <c r="R198" t="s">
         <v>465</v>
       </c>
-      <c r="R198" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -12911,13 +13851,16 @@
         <v>227</v>
       </c>
       <c r="Q199" t="s">
+        <v>576</v>
+      </c>
+      <c r="R199" t="s">
         <v>465</v>
       </c>
-      <c r="R199" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>461</v>
       </c>
@@ -12970,10 +13913,13 @@
         <v>461</v>
       </c>
       <c r="R200" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S200" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -13023,13 +13969,16 @@
         <v>302</v>
       </c>
       <c r="Q201" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R201" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S201" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -13079,13 +14028,16 @@
         <v>305</v>
       </c>
       <c r="Q202" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R202" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S202" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -13135,13 +14087,16 @@
         <v>308</v>
       </c>
       <c r="Q203" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R203" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S203" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -13191,13 +14146,16 @@
         <v>311</v>
       </c>
       <c r="Q204" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R204" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S204" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -13247,13 +14205,16 @@
         <v>461</v>
       </c>
       <c r="Q205" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R205" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S205" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -13303,13 +14264,16 @@
         <v>461</v>
       </c>
       <c r="Q206" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R206" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S206" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -13359,13 +14323,16 @@
         <v>316</v>
       </c>
       <c r="Q207" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R207" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S207" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -13415,13 +14382,16 @@
         <v>316</v>
       </c>
       <c r="Q208" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R208" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S208" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -13471,13 +14441,16 @@
         <v>316</v>
       </c>
       <c r="Q209" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R209" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S209" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -13527,13 +14500,16 @@
         <v>321</v>
       </c>
       <c r="Q210" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R210" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S210" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -13583,13 +14559,16 @@
         <v>321</v>
       </c>
       <c r="Q211" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R211" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S211" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -13639,13 +14618,16 @@
         <v>325</v>
       </c>
       <c r="Q212" t="s">
+        <v>7</v>
+      </c>
+      <c r="R212" t="s">
         <v>465</v>
       </c>
-      <c r="R212" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18">
+      <c r="S212" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -13695,13 +14677,16 @@
         <v>325</v>
       </c>
       <c r="Q213" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="R213" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18">
+        <v>571</v>
+      </c>
+      <c r="S213" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -13751,13 +14736,16 @@
         <v>325</v>
       </c>
       <c r="Q214" t="s">
+        <v>7</v>
+      </c>
+      <c r="R214" t="s">
         <v>465</v>
       </c>
-      <c r="R214" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18">
+      <c r="S214" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -13807,13 +14795,16 @@
         <v>325</v>
       </c>
       <c r="Q215" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="R215" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18">
+        <v>570</v>
+      </c>
+      <c r="S215" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -13863,13 +14854,16 @@
         <v>331</v>
       </c>
       <c r="Q216" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R216" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S216" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -13919,13 +14913,16 @@
         <v>331</v>
       </c>
       <c r="Q217" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R217" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S217" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -13975,13 +14972,16 @@
         <v>331</v>
       </c>
       <c r="Q218" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R218" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S218" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -14031,13 +15031,16 @@
         <v>336</v>
       </c>
       <c r="Q219" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R219" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S219" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -14087,13 +15090,16 @@
         <v>336</v>
       </c>
       <c r="Q220" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R220" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S220" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -14143,13 +15149,16 @@
         <v>336</v>
       </c>
       <c r="Q221" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R221" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S221" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -14199,13 +15208,16 @@
         <v>341</v>
       </c>
       <c r="Q222" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R222" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S222" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -14255,13 +15267,16 @@
         <v>344</v>
       </c>
       <c r="Q223" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R223" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18">
+        <v>572</v>
+      </c>
+      <c r="S223" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -14311,13 +15326,16 @@
         <v>344</v>
       </c>
       <c r="Q224" t="s">
+        <v>4</v>
+      </c>
+      <c r="R224" t="s">
         <v>465</v>
       </c>
-      <c r="R224" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18">
+      <c r="S224" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -14367,13 +15385,16 @@
         <v>461</v>
       </c>
       <c r="Q225" t="s">
+        <v>4</v>
+      </c>
+      <c r="R225" t="s">
         <v>465</v>
       </c>
-      <c r="R225" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18">
+      <c r="S225" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -14423,13 +15444,16 @@
         <v>461</v>
       </c>
       <c r="Q226" t="s">
+        <v>4</v>
+      </c>
+      <c r="R226" t="s">
         <v>465</v>
       </c>
-      <c r="R226" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18">
+      <c r="S226" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -14479,13 +15503,16 @@
         <v>461</v>
       </c>
       <c r="Q227" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R227" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S227" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -14535,13 +15562,16 @@
         <v>461</v>
       </c>
       <c r="Q228" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R228" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S228" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -14591,13 +15621,16 @@
         <v>355</v>
       </c>
       <c r="Q229" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R229" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S229" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -14647,13 +15680,16 @@
         <v>355</v>
       </c>
       <c r="Q230" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R230" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S230" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -14703,13 +15739,16 @@
         <v>355</v>
       </c>
       <c r="Q231" t="s">
+        <v>4</v>
+      </c>
+      <c r="R231" t="s">
         <v>465</v>
       </c>
-      <c r="R231" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18">
+      <c r="S231" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -14759,13 +15798,16 @@
         <v>355</v>
       </c>
       <c r="Q232" t="s">
+        <v>4</v>
+      </c>
+      <c r="R232" t="s">
         <v>465</v>
       </c>
-      <c r="R232" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18">
+      <c r="S232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -14815,13 +15857,16 @@
         <v>361</v>
       </c>
       <c r="Q233" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R233" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18">
+        <v>573</v>
+      </c>
+      <c r="S233" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -14871,13 +15916,16 @@
         <v>361</v>
       </c>
       <c r="Q234" t="s">
+        <v>4</v>
+      </c>
+      <c r="R234" t="s">
         <v>465</v>
       </c>
-      <c r="R234" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18">
+      <c r="S234" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -14927,13 +15975,16 @@
         <v>365</v>
       </c>
       <c r="Q235" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="R235" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18">
+        <v>574</v>
+      </c>
+      <c r="S235" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -14983,13 +16034,16 @@
         <v>365</v>
       </c>
       <c r="Q236" t="s">
+        <v>7</v>
+      </c>
+      <c r="R236" t="s">
         <v>465</v>
       </c>
-      <c r="R236" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18">
+      <c r="S236" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>461</v>
       </c>
@@ -15042,10 +16096,13 @@
         <v>461</v>
       </c>
       <c r="R237" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S237" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -15095,13 +16152,16 @@
         <v>371</v>
       </c>
       <c r="Q238" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R238" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="239" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S238" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -15151,13 +16211,16 @@
         <v>371</v>
       </c>
       <c r="Q239" t="s">
+        <v>4</v>
+      </c>
+      <c r="R239" t="s">
         <v>465</v>
       </c>
-      <c r="R239" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18">
+      <c r="S239" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -15207,13 +16270,16 @@
         <v>374</v>
       </c>
       <c r="Q240" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R240" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S240" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -15263,13 +16329,16 @@
         <v>374</v>
       </c>
       <c r="Q241" t="s">
+        <v>4</v>
+      </c>
+      <c r="R241" t="s">
         <v>465</v>
       </c>
-      <c r="R241" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18">
+      <c r="S241" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -15319,13 +16388,16 @@
         <v>378</v>
       </c>
       <c r="Q242" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R242" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S242" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -15375,13 +16447,16 @@
         <v>378</v>
       </c>
       <c r="Q243" t="s">
+        <v>4</v>
+      </c>
+      <c r="R243" t="s">
         <v>465</v>
       </c>
-      <c r="R243" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18">
+      <c r="S243" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -15431,13 +16506,16 @@
         <v>378</v>
       </c>
       <c r="Q244" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R244" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S244" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -15487,13 +16565,16 @@
         <v>378</v>
       </c>
       <c r="Q245" t="s">
+        <v>4</v>
+      </c>
+      <c r="R245" t="s">
         <v>465</v>
       </c>
-      <c r="R245" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18">
+      <c r="S245" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -15543,13 +16624,16 @@
         <v>384</v>
       </c>
       <c r="Q246" t="s">
+        <v>4</v>
+      </c>
+      <c r="R246" t="s">
         <v>465</v>
       </c>
-      <c r="R246" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18">
+      <c r="S246" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -15599,13 +16683,16 @@
         <v>384</v>
       </c>
       <c r="Q247" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R247" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18">
+        <v>567</v>
+      </c>
+      <c r="S247" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -15655,13 +16742,16 @@
         <v>384</v>
       </c>
       <c r="Q248" t="s">
+        <v>4</v>
+      </c>
+      <c r="R248" t="s">
         <v>465</v>
       </c>
-      <c r="R248" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18">
+      <c r="S248" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -15711,13 +16801,16 @@
         <v>384</v>
       </c>
       <c r="Q249" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R249" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="250" spans="1:18">
+        <v>567</v>
+      </c>
+      <c r="S249" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -15767,13 +16860,16 @@
         <v>461</v>
       </c>
       <c r="Q250" t="s">
+        <v>4</v>
+      </c>
+      <c r="R250" t="s">
         <v>465</v>
       </c>
-      <c r="R250" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="251" spans="1:18">
+      <c r="S250" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -15823,13 +16919,16 @@
         <v>461</v>
       </c>
       <c r="Q251" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R251" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="252" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S251" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -15879,13 +16978,16 @@
         <v>461</v>
       </c>
       <c r="Q252" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R252" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="253" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S252" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -15935,13 +17037,16 @@
         <v>461</v>
       </c>
       <c r="Q253" t="s">
+        <v>4</v>
+      </c>
+      <c r="R253" t="s">
         <v>465</v>
       </c>
-      <c r="R253" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="254" spans="1:18">
+      <c r="S253" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -15991,13 +17096,16 @@
         <v>397</v>
       </c>
       <c r="Q254" t="s">
+        <v>576</v>
+      </c>
+      <c r="R254" t="s">
         <v>465</v>
       </c>
-      <c r="R254" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18">
+      <c r="S254" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -16047,13 +17155,16 @@
         <v>397</v>
       </c>
       <c r="Q255" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R255" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S255" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -16103,13 +17214,16 @@
         <v>397</v>
       </c>
       <c r="Q256" t="s">
+        <v>4</v>
+      </c>
+      <c r="R256" t="s">
         <v>465</v>
       </c>
-      <c r="R256" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18">
+      <c r="S256" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -16159,13 +17273,16 @@
         <v>397</v>
       </c>
       <c r="Q257" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R257" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S257" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -16215,13 +17332,16 @@
         <v>374</v>
       </c>
       <c r="Q258" t="s">
+        <v>4</v>
+      </c>
+      <c r="R258" t="s">
         <v>465</v>
       </c>
-      <c r="R258" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18">
+      <c r="S258" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -16271,13 +17391,16 @@
         <v>374</v>
       </c>
       <c r="Q259" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R259" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S259" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -16327,13 +17450,16 @@
         <v>403</v>
       </c>
       <c r="Q260" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R260" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S260" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -16383,13 +17509,16 @@
         <v>403</v>
       </c>
       <c r="Q261" t="s">
+        <v>4</v>
+      </c>
+      <c r="R261" t="s">
         <v>465</v>
       </c>
-      <c r="R261" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="262" spans="1:18">
+      <c r="S261" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -16439,13 +17568,16 @@
         <v>403</v>
       </c>
       <c r="Q262" t="s">
+        <v>4</v>
+      </c>
+      <c r="R262" t="s">
         <v>465</v>
       </c>
-      <c r="R262" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18">
+      <c r="S262" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -16495,13 +17627,16 @@
         <v>374</v>
       </c>
       <c r="Q263" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R263" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S263" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -16551,13 +17686,16 @@
         <v>403</v>
       </c>
       <c r="Q264" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R264" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S264" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -16607,13 +17745,16 @@
         <v>403</v>
       </c>
       <c r="Q265" t="s">
+        <v>4</v>
+      </c>
+      <c r="R265" t="s">
         <v>465</v>
       </c>
-      <c r="R265" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18">
+      <c r="S265" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -16663,13 +17804,16 @@
         <v>403</v>
       </c>
       <c r="Q266" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R266" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S266" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -16719,13 +17863,16 @@
         <v>374</v>
       </c>
       <c r="Q267" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="R267" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S267" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -16775,13 +17922,16 @@
         <v>374</v>
       </c>
       <c r="Q268" t="s">
+        <v>4</v>
+      </c>
+      <c r="R268" t="s">
         <v>465</v>
       </c>
-      <c r="R268" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18">
+      <c r="S268" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -16831,13 +17981,16 @@
         <v>374</v>
       </c>
       <c r="Q269" t="s">
+        <v>4</v>
+      </c>
+      <c r="R269" t="s">
         <v>465</v>
       </c>
-      <c r="R269" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18">
+      <c r="S269" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>461</v>
       </c>
@@ -16890,10 +18043,13 @@
         <v>461</v>
       </c>
       <c r="R270" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S270" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -16943,13 +18099,16 @@
         <v>413</v>
       </c>
       <c r="Q271" t="s">
+        <v>576</v>
+      </c>
+      <c r="R271" t="s">
         <v>465</v>
       </c>
-      <c r="R271" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18">
+      <c r="S271" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -16999,13 +18158,16 @@
         <v>413</v>
       </c>
       <c r="Q272" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R272" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S272" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -17055,13 +18217,16 @@
         <v>413</v>
       </c>
       <c r="Q273" t="s">
+        <v>576</v>
+      </c>
+      <c r="R273" t="s">
         <v>465</v>
       </c>
-      <c r="R273" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18">
+      <c r="S273" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -17111,13 +18276,16 @@
         <v>413</v>
       </c>
       <c r="Q274" t="s">
+        <v>576</v>
+      </c>
+      <c r="R274" t="s">
         <v>465</v>
       </c>
-      <c r="R274" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18">
+      <c r="S274" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -17167,13 +18335,16 @@
         <v>413</v>
       </c>
       <c r="Q275" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R275" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S275" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -17223,13 +18394,16 @@
         <v>413</v>
       </c>
       <c r="Q276" t="s">
+        <v>576</v>
+      </c>
+      <c r="R276" t="s">
         <v>465</v>
       </c>
-      <c r="R276" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18">
+      <c r="S276" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>461</v>
       </c>
@@ -17282,10 +18456,13 @@
         <v>461</v>
       </c>
       <c r="R277" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18">
+        <v>575</v>
+      </c>
+      <c r="S277" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -17335,13 +18512,16 @@
         <v>424</v>
       </c>
       <c r="Q278" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R278" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S278" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -17391,13 +18571,16 @@
         <v>424</v>
       </c>
       <c r="Q279" t="s">
+        <v>4</v>
+      </c>
+      <c r="R279" t="s">
         <v>465</v>
       </c>
-      <c r="R279" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18">
+      <c r="S279" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -17447,13 +18630,16 @@
         <v>424</v>
       </c>
       <c r="Q280" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="R280" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S280" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -17503,13 +18689,16 @@
         <v>424</v>
       </c>
       <c r="Q281" t="s">
+        <v>4</v>
+      </c>
+      <c r="R281" t="s">
         <v>465</v>
       </c>
-      <c r="R281" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="282" spans="1:18">
+      <c r="S281" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -17559,13 +18748,16 @@
         <v>431</v>
       </c>
       <c r="Q282" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R282" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18">
+        <v>461</v>
+      </c>
+      <c r="S282" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -17615,13 +18807,16 @@
         <v>435</v>
       </c>
       <c r="Q283" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
       <c r="R283" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="284" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S283" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -17671,13 +18866,16 @@
         <v>435</v>
       </c>
       <c r="Q284" t="s">
+        <v>7</v>
+      </c>
+      <c r="R284" t="s">
         <v>465</v>
       </c>
-      <c r="R284" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18">
+      <c r="S284" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -17727,13 +18925,16 @@
         <v>435</v>
       </c>
       <c r="Q285" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
       <c r="R285" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18">
+        <v>468</v>
+      </c>
+      <c r="S285" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -17783,13 +18984,16 @@
         <v>435</v>
       </c>
       <c r="Q286" t="s">
+        <v>7</v>
+      </c>
+      <c r="R286" t="s">
         <v>465</v>
       </c>
-      <c r="R286" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18">
+      <c r="S286" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -17839,13 +19043,16 @@
         <v>461</v>
       </c>
       <c r="Q287" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R287" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18">
+        <v>469</v>
+      </c>
+      <c r="S287" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -17895,9 +19102,12 @@
         <v>461</v>
       </c>
       <c r="Q288" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="R288" t="s">
+        <v>469</v>
+      </c>
+      <c r="S288" t="s">
         <v>463</v>
       </c>
     </row>
@@ -17908,24 +19118,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/test data/rebilltroubleshoottest.xlsx
+++ b/test data/rebilltroubleshoottest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91867" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108226" uniqueCount="579">
   <si>
     <t>a</t>
   </si>
@@ -1755,6 +1755,12 @@
   </si>
   <si>
     <t>Not Found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All DTT Tracks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No RM Device Trks All DTT Tracks </t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2237,7 @@
         <v>575</v>
       </c>
       <c r="S2" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -3001,7 +3007,7 @@
         <v>575</v>
       </c>
       <c r="S15" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
@@ -3060,7 +3066,7 @@
         <v>575</v>
       </c>
       <c r="S16" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -3119,7 +3125,7 @@
         <v>575</v>
       </c>
       <c r="S17" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -3178,7 +3184,7 @@
         <v>575</v>
       </c>
       <c r="S18" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -3237,7 +3243,7 @@
         <v>575</v>
       </c>
       <c r="S19" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -3296,7 +3302,7 @@
         <v>575</v>
       </c>
       <c r="S20" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -3355,7 +3361,7 @@
         <v>575</v>
       </c>
       <c r="S21" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -3414,7 +3420,7 @@
         <v>468</v>
       </c>
       <c r="S22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -3473,7 +3479,7 @@
         <v>465</v>
       </c>
       <c r="S23" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -3650,7 +3656,7 @@
         <v>575</v>
       </c>
       <c r="S26" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -3709,7 +3715,7 @@
         <v>575</v>
       </c>
       <c r="S27" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -3768,7 +3774,7 @@
         <v>575</v>
       </c>
       <c r="S28" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -3827,7 +3833,7 @@
         <v>575</v>
       </c>
       <c r="S29" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -3886,7 +3892,7 @@
         <v>575</v>
       </c>
       <c r="S30" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -4299,7 +4305,7 @@
         <v>575</v>
       </c>
       <c r="S37" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -4358,7 +4364,7 @@
         <v>468</v>
       </c>
       <c r="S38" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
@@ -4417,7 +4423,7 @@
         <v>468</v>
       </c>
       <c r="S39" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -4476,7 +4482,7 @@
         <v>465</v>
       </c>
       <c r="S40" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -4771,7 +4777,7 @@
         <v>575</v>
       </c>
       <c r="S45" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
@@ -5066,7 +5072,7 @@
         <v>575</v>
       </c>
       <c r="S50" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
@@ -5715,7 +5721,7 @@
         <v>575</v>
       </c>
       <c r="S61" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
@@ -5774,7 +5780,7 @@
         <v>575</v>
       </c>
       <c r="S62" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
@@ -5833,7 +5839,7 @@
         <v>575</v>
       </c>
       <c r="S63" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
@@ -5892,7 +5898,7 @@
         <v>575</v>
       </c>
       <c r="S64" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
@@ -5951,7 +5957,7 @@
         <v>575</v>
       </c>
       <c r="S65" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
@@ -6010,7 +6016,7 @@
         <v>575</v>
       </c>
       <c r="S66" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
@@ -6187,7 +6193,7 @@
         <v>575</v>
       </c>
       <c r="S69" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
@@ -6836,7 +6842,7 @@
         <v>575</v>
       </c>
       <c r="S80" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
@@ -6895,7 +6901,7 @@
         <v>465</v>
       </c>
       <c r="S81" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
@@ -6954,7 +6960,7 @@
         <v>468</v>
       </c>
       <c r="S82" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
@@ -7013,7 +7019,7 @@
         <v>468</v>
       </c>
       <c r="S83" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
@@ -7072,7 +7078,7 @@
         <v>465</v>
       </c>
       <c r="S84" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
@@ -7131,7 +7137,7 @@
         <v>575</v>
       </c>
       <c r="S85" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
@@ -7721,7 +7727,7 @@
         <v>575</v>
       </c>
       <c r="S95" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
@@ -7780,7 +7786,7 @@
         <v>575</v>
       </c>
       <c r="S96" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
@@ -8075,7 +8081,7 @@
         <v>575</v>
       </c>
       <c r="S101" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
@@ -8311,7 +8317,7 @@
         <v>575</v>
       </c>
       <c r="S105" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
@@ -8370,7 +8376,7 @@
         <v>575</v>
       </c>
       <c r="S106" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
@@ -8429,7 +8435,7 @@
         <v>575</v>
       </c>
       <c r="S107" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
@@ -8488,7 +8494,7 @@
         <v>465</v>
       </c>
       <c r="S108" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
@@ -8547,7 +8553,7 @@
         <v>465</v>
       </c>
       <c r="S109" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
@@ -8606,7 +8612,7 @@
         <v>468</v>
       </c>
       <c r="S110" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
@@ -8665,7 +8671,7 @@
         <v>468</v>
       </c>
       <c r="S111" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
@@ -8724,7 +8730,7 @@
         <v>465</v>
       </c>
       <c r="S112" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
@@ -8783,7 +8789,7 @@
         <v>468</v>
       </c>
       <c r="S113" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
@@ -9078,7 +9084,7 @@
         <v>575</v>
       </c>
       <c r="S118" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
@@ -9373,7 +9379,7 @@
         <v>575</v>
       </c>
       <c r="S123" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
@@ -9668,7 +9674,7 @@
         <v>575</v>
       </c>
       <c r="S128" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
@@ -10435,7 +10441,7 @@
         <v>575</v>
       </c>
       <c r="S141" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.35">
@@ -10494,7 +10500,7 @@
         <v>575</v>
       </c>
       <c r="S142" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.35">
@@ -10553,7 +10559,7 @@
         <v>575</v>
       </c>
       <c r="S143" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.35">
@@ -10612,7 +10618,7 @@
         <v>575</v>
       </c>
       <c r="S144" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.35">
@@ -10671,7 +10677,7 @@
         <v>575</v>
       </c>
       <c r="S145" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.35">
@@ -10730,7 +10736,7 @@
         <v>575</v>
       </c>
       <c r="S146" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.35">
@@ -10789,7 +10795,7 @@
         <v>575</v>
       </c>
       <c r="S147" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.35">
@@ -10848,7 +10854,7 @@
         <v>575</v>
       </c>
       <c r="S148" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.35">
@@ -10907,7 +10913,7 @@
         <v>575</v>
       </c>
       <c r="S149" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.35">
@@ -10966,7 +10972,7 @@
         <v>468</v>
       </c>
       <c r="S150" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.35">
@@ -11025,7 +11031,7 @@
         <v>468</v>
       </c>
       <c r="S151" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.35">
@@ -11084,7 +11090,7 @@
         <v>468</v>
       </c>
       <c r="S152" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.35">
@@ -11143,7 +11149,7 @@
         <v>465</v>
       </c>
       <c r="S153" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.35">
@@ -11202,7 +11208,7 @@
         <v>468</v>
       </c>
       <c r="S154" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.35">
@@ -11261,7 +11267,7 @@
         <v>575</v>
       </c>
       <c r="S155" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.35">
@@ -11674,7 +11680,7 @@
         <v>575</v>
       </c>
       <c r="S162" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.35">
@@ -11792,7 +11798,7 @@
         <v>468</v>
       </c>
       <c r="S164" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.35">
@@ -11851,7 +11857,7 @@
         <v>465</v>
       </c>
       <c r="S165" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.35">
@@ -11910,7 +11916,7 @@
         <v>468</v>
       </c>
       <c r="S166" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.35">
@@ -11969,7 +11975,7 @@
         <v>465</v>
       </c>
       <c r="S167" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.35">
@@ -12028,7 +12034,7 @@
         <v>465</v>
       </c>
       <c r="S168" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.35">
@@ -12087,7 +12093,7 @@
         <v>468</v>
       </c>
       <c r="S169" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.35">
@@ -12146,7 +12152,7 @@
         <v>465</v>
       </c>
       <c r="S170" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.35">
@@ -12205,7 +12211,7 @@
         <v>468</v>
       </c>
       <c r="S171" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.35">
@@ -12382,7 +12388,7 @@
         <v>465</v>
       </c>
       <c r="S174" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.35">
@@ -12441,7 +12447,7 @@
         <v>465</v>
       </c>
       <c r="S175" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.35">
@@ -12500,7 +12506,7 @@
         <v>468</v>
       </c>
       <c r="S176" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.35">
@@ -12559,7 +12565,7 @@
         <v>468</v>
       </c>
       <c r="S177" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.35">
@@ -12618,7 +12624,7 @@
         <v>468</v>
       </c>
       <c r="S178" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.35">
@@ -12677,7 +12683,7 @@
         <v>465</v>
       </c>
       <c r="S179" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
@@ -12736,7 +12742,7 @@
         <v>468</v>
       </c>
       <c r="S180" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.35">
@@ -12795,7 +12801,7 @@
         <v>465</v>
       </c>
       <c r="S181" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.35">
@@ -12854,7 +12860,7 @@
         <v>468</v>
       </c>
       <c r="S182" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.35">
@@ -12913,7 +12919,7 @@
         <v>465</v>
       </c>
       <c r="S183" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.35">
@@ -12972,7 +12978,7 @@
         <v>465</v>
       </c>
       <c r="S184" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.35">
@@ -13031,7 +13037,7 @@
         <v>465</v>
       </c>
       <c r="S185" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.35">
@@ -13090,7 +13096,7 @@
         <v>465</v>
       </c>
       <c r="S186" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.35">
@@ -13149,7 +13155,7 @@
         <v>468</v>
       </c>
       <c r="S187" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.35">
@@ -13208,7 +13214,7 @@
         <v>468</v>
       </c>
       <c r="S188" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
@@ -13267,7 +13273,7 @@
         <v>468</v>
       </c>
       <c r="S189" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.35">
@@ -13916,7 +13922,7 @@
         <v>575</v>
       </c>
       <c r="S200" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.35">
@@ -13975,7 +13981,7 @@
         <v>468</v>
       </c>
       <c r="S201" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.35">
@@ -15391,7 +15397,7 @@
         <v>465</v>
       </c>
       <c r="S225" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.35">
@@ -15450,7 +15456,7 @@
         <v>465</v>
       </c>
       <c r="S226" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.35">
@@ -15509,7 +15515,7 @@
         <v>468</v>
       </c>
       <c r="S227" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.35">
@@ -15568,7 +15574,7 @@
         <v>468</v>
       </c>
       <c r="S228" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.35">
@@ -16099,7 +16105,7 @@
         <v>575</v>
       </c>
       <c r="S237" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.35">
@@ -18046,7 +18052,7 @@
         <v>575</v>
       </c>
       <c r="S270" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.35">
@@ -18105,7 +18111,7 @@
         <v>465</v>
       </c>
       <c r="S271" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.35">
@@ -18164,7 +18170,7 @@
         <v>468</v>
       </c>
       <c r="S272" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.35">
@@ -18223,7 +18229,7 @@
         <v>465</v>
       </c>
       <c r="S273" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.35">
@@ -18282,7 +18288,7 @@
         <v>465</v>
       </c>
       <c r="S274" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.35">
@@ -18341,7 +18347,7 @@
         <v>468</v>
       </c>
       <c r="S275" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.35">
@@ -18400,7 +18406,7 @@
         <v>465</v>
       </c>
       <c r="S276" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.35">
@@ -18459,7 +18465,7 @@
         <v>575</v>
       </c>
       <c r="S277" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.35">
@@ -18813,7 +18819,7 @@
         <v>468</v>
       </c>
       <c r="S283" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.35">
@@ -18872,7 +18878,7 @@
         <v>465</v>
       </c>
       <c r="S284" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.35">
@@ -18931,7 +18937,7 @@
         <v>468</v>
       </c>
       <c r="S285" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.35">
@@ -18990,7 +18996,7 @@
         <v>465</v>
       </c>
       <c r="S286" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.35">
